--- a/data/evaluation/evaluation_South_Spring_Clementines.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Clementines.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2313.50390376723</v>
+        <v>2299.466535907651</v>
       </c>
       <c r="C4" t="n">
-        <v>8743929.733125469</v>
+        <v>8638517.782702308</v>
       </c>
       <c r="D4" t="n">
-        <v>2957.013651156428</v>
+        <v>2939.135550243015</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09486086888331302</v>
+        <v>-0.08166183559353679</v>
       </c>
     </row>
     <row r="5">
